--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project code\VoiceAssistense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mikel\VoiceAssistense-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143EA5A4-EB57-4BE2-907E-E170617C8CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29096AD6-367D-47DF-B68B-7AA6C0826400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="3705" windowWidth="20700" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,42 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
-  <si>
-    <t>нотариус заверить паспорт</t>
-  </si>
-  <si>
-    <t>нотариус, заверить, паспорт</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+  <si>
+    <t>отправить документы по почте</t>
+  </si>
+  <si>
+    <t>отправить, документ, по, почта</t>
+  </si>
+  <si>
+    <t>Документы можно подать по почте, почтовый адрес направления документов, необходимых для поступления — 198035, г. Санкт-Петербург, ул. Двинская, д.5/7</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>нужно ли заверять документы</t>
+  </si>
+  <si>
+    <t>нужно, ли, заверять, документ</t>
   </si>
   <si>
     <t>Копии документов заверять не нужно. Вы предоставляете простые ксерокопии.</t>
   </si>
   <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>Нужно ли заверить паспорт у нотариуса</t>
-  </si>
-  <si>
-    <t>нужно, ли, заверить, паспорт, у, нотариус</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>Я не могу ответить на ваш вопрос</t>
+    <t>какие документы надо предоставить для поступления</t>
+  </si>
+  <si>
+    <t>какой, документ, надо, предоставить, для, поступление</t>
+  </si>
+  <si>
+    <t>При подаче заявления о приеме в Университет необходимо предоставить: Заявление о приеме на обучение, на обработку персональных данных, ксерокопии документов удостоверяющих личность, страховое свидетельство и оригиналы документа об образовании, фотографии 3x4 и результаты прохождения медицинского осмотра</t>
+  </si>
+  <si>
+    <t>Да, нужна. Подробнее можете узнать на сайте приемной комисии ГУМРФ</t>
+  </si>
+  <si>
+    <t>предоставляется общежитие</t>
+  </si>
+  <si>
+    <t>предоставляться, общежитие</t>
+  </si>
+  <si>
+    <t>Всем поступающим иногородним студентам предоставляется общежитие. Курсанты (плавсостав) проживают в экипажах, им предоставляется обмундирование и питание. Студенты (в том числе и обучающиеся на бюджете) оплачивают проживание в общежитии при заселении.</t>
+  </si>
+  <si>
+    <t>Я не могу ответить на ваш вопрос. Перевожу вас на оператора</t>
   </si>
   <si>
     <t>нет</t>
   </si>
   <si>
-    <t>почта документы дистанционно</t>
-  </si>
-  <si>
-    <t>почта, документ, дистанционно</t>
-  </si>
-  <si>
-    <t>Документы можно подать по почте, почтовый адрес направления документов, необходимых для поступления — 198035, г. Санкт-Петербург, ул. Двинская, д.5/7</t>
+    <t>документы оформить</t>
+  </si>
+  <si>
+    <t>документ, оформить</t>
+  </si>
+  <si>
+    <t>когда будут известны списки поступивших</t>
+  </si>
+  <si>
+    <t>когда, быть, известный, список, поступить</t>
+  </si>
+  <si>
+    <t>если, в, университет, военный, кафедра</t>
+  </si>
+  <si>
+    <t>Дата и время тестирования</t>
+  </si>
+  <si>
+    <t>нужна ли медицинская справка для поступления</t>
+  </si>
+  <si>
+    <t>нужно, ли, медицинский, справка, для, поступление</t>
+  </si>
+  <si>
+    <t>Запрос пользователя</t>
+  </si>
+  <si>
+    <t>Ключевые слова</t>
+  </si>
+  <si>
+    <t>Ответ ассистента</t>
+  </si>
+  <si>
+    <t>Смог ли самостоятельно ответить голосовой ассистент</t>
+  </si>
+  <si>
+    <t>если в университете военная кафедра</t>
+  </si>
+  <si>
+    <t>заверять документы</t>
+  </si>
+  <si>
+    <t>заверять, документ</t>
+  </si>
+  <si>
+    <t>заверять документы у нотариуса</t>
+  </si>
+  <si>
+    <t>заверять, документ, у, нотариус</t>
   </si>
 </sst>
 </file>
@@ -82,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,11 +153,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -104,6 +176,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,10 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,42 +472,39 @@
     <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="51.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>45085.518080138892</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45088.889837962961</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.25125460000708699</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45083.807107245368</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -439,158 +512,155 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.18895320000592619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45085.40152777778</v>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45088.890335648146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45085.401817129627</v>
+        <v>45088.890567129631</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45085.40320601852</v>
+        <v>45088.890775462962</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45088.890960648147</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45088.891458333332</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45088.892314814817</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45088.893148148149</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45092.345405092594</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45085.407152777778</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45092.348865740743</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45085.407673611109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>45085.409305555557</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45085.410474537035</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45085.414872685185</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45087.61922453704</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
